--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -755,7 +755,7 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
     <t>The value that is unique</t>
@@ -1164,7 +1164,7 @@
     <t>Performerを示さずにこのエレメントが指定された場合は、このエレメントは薬剤の投与／管理が指定の職種でなければならないと言うことを示している。Performerと共に指定された場合は、もし指定されたPerformerが実施できない場合に薬剤投与・管理を行うものについての要件が示されたことを意味する。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PractitionerRole_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_PractitionerRole_VS</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1862,7 +1862,7 @@
     <t>代替品が許可されるかどうかは無視できないので、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
   </si>
   <si>
     <t>code</t>
@@ -2299,7 +2299,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="121.76953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="79.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.55078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
